--- a/labevents/Lab-Event-Item-Counts.xlsx
+++ b/labevents/Lab-Event-Item-Counts.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E727"/>
+  <dimension ref="A1:F727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,11 @@
           <t>nUnits</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -404,6 +409,11 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -425,6 +435,11 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>U/mL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -446,6 +461,11 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -614,6 +634,11 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -635,6 +660,11 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -656,6 +686,11 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ng/ml</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -677,6 +712,11 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -698,6 +738,11 @@
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -719,6 +764,11 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -740,6 +790,11 @@
       <c r="E18">
         <v>1</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -761,6 +816,11 @@
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -782,6 +842,11 @@
       <c r="E20">
         <v>2</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>mm Hg|MM HG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -803,6 +868,11 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mm Hg|MM HG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -824,6 +894,11 @@
       <c r="E22">
         <v>2</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>units|UNITS</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -845,6 +920,11 @@
       <c r="E23">
         <v>1</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -866,6 +946,11 @@
       <c r="E24">
         <v>1</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -887,6 +972,11 @@
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -908,6 +998,11 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -929,6 +1024,11 @@
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -950,6 +1050,11 @@
       <c r="E28">
         <v>1</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -992,6 +1097,11 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1034,6 +1144,11 @@
       <c r="E32">
         <v>1</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1055,6 +1170,11 @@
       <c r="E33">
         <v>1</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>U/mL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1097,6 +1217,11 @@
       <c r="E35">
         <v>1</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>hrs</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1118,6 +1243,11 @@
       <c r="E36">
         <v>1</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>+/-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1160,6 +1290,11 @@
       <c r="E38">
         <v>1</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>umol/L</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1223,6 +1358,11 @@
       <c r="E41">
         <v>1</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1244,6 +1384,11 @@
       <c r="E42">
         <v>1</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>/mm3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1307,6 +1452,11 @@
       <c r="E45">
         <v>1</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1328,6 +1478,11 @@
       <c r="E46">
         <v>1</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1349,6 +1504,11 @@
       <c r="E47">
         <v>1</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1370,6 +1530,11 @@
       <c r="E48">
         <v>1</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1391,6 +1556,11 @@
       <c r="E49">
         <v>1</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1412,6 +1582,11 @@
       <c r="E50">
         <v>1</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1433,6 +1608,11 @@
       <c r="E51">
         <v>1</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1475,6 +1655,11 @@
       <c r="E53">
         <v>1</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>mg/g</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1496,6 +1681,11 @@
       <c r="E54">
         <v>2</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>mIU/L|mIU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1517,6 +1707,11 @@
       <c r="E55">
         <v>1</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1538,6 +1733,11 @@
       <c r="E56">
         <v>1</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -1559,6 +1759,11 @@
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>mOsm/kg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -1580,6 +1785,11 @@
       <c r="E58">
         <v>1</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -1601,6 +1811,11 @@
       <c r="E59">
         <v>1</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -1622,6 +1837,11 @@
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -1643,6 +1863,11 @@
       <c r="E61">
         <v>2</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>mIU/L|mIU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -1685,6 +1910,11 @@
       <c r="E63">
         <v>1</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>umol/L</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -1706,6 +1936,11 @@
       <c r="E64">
         <v>2</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>mg/dL|MG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -1811,6 +2046,11 @@
       <c r="E69">
         <v>1</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -1937,6 +2177,11 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -1958,6 +2203,11 @@
       <c r="E76">
         <v>1</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -1979,6 +2229,11 @@
       <c r="E77">
         <v>1</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -2000,6 +2255,11 @@
       <c r="E78">
         <v>1</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -2021,6 +2281,11 @@
       <c r="E79">
         <v>1</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -2042,6 +2307,11 @@
       <c r="E80">
         <v>1</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -2063,6 +2333,11 @@
       <c r="E81">
         <v>1</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -2084,6 +2359,11 @@
       <c r="E82">
         <v>1</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -2105,6 +2385,11 @@
       <c r="E83">
         <v>1</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -2126,6 +2411,11 @@
       <c r="E84">
         <v>1</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2147,6 +2437,11 @@
       <c r="E85">
         <v>1</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -2168,6 +2463,11 @@
       <c r="E86">
         <v>1</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -2315,6 +2615,11 @@
       <c r="E93">
         <v>1</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -2336,6 +2641,11 @@
       <c r="E94">
         <v>1</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -2357,6 +2667,11 @@
       <c r="E95">
         <v>1</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -2378,6 +2693,11 @@
       <c r="E96">
         <v>1</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>U/mL</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -2399,6 +2719,11 @@
       <c r="E97">
         <v>1</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -2420,6 +2745,11 @@
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -2441,6 +2771,11 @@
       <c r="E99">
         <v>1</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -2462,6 +2797,11 @@
       <c r="E100">
         <v>1</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -2483,6 +2823,11 @@
       <c r="E101">
         <v>1</v>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -2504,6 +2849,11 @@
       <c r="E102">
         <v>1</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -2525,6 +2875,11 @@
       <c r="E103">
         <v>1</v>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -2609,6 +2964,11 @@
       <c r="E107">
         <v>2</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ng/mL|nG/ML</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -2630,6 +2990,11 @@
       <c r="E108">
         <v>1</v>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -2651,6 +3016,11 @@
       <c r="E109">
         <v>1</v>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -2693,6 +3063,11 @@
       <c r="E111">
         <v>1</v>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -2714,6 +3089,11 @@
       <c r="E112">
         <v>1</v>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -2735,6 +3115,11 @@
       <c r="E113">
         <v>1</v>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -2756,6 +3141,11 @@
       <c r="E114">
         <v>1</v>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -2777,6 +3167,11 @@
       <c r="E115">
         <v>1</v>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -2798,6 +3193,11 @@
       <c r="E116">
         <v>1</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -2819,6 +3219,11 @@
       <c r="E117">
         <v>1</v>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -2840,6 +3245,11 @@
       <c r="E118">
         <v>1</v>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -2861,6 +3271,11 @@
       <c r="E119">
         <v>1</v>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -2882,6 +3297,11 @@
       <c r="E120">
         <v>3</v>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mg/dL|MG/DL|mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -2903,6 +3323,11 @@
       <c r="E121">
         <v>1</v>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>mmol/L</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -2924,6 +3349,11 @@
       <c r="E122">
         <v>1</v>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>mm Hg</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -2945,6 +3375,11 @@
       <c r="E123">
         <v>1</v>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -2966,6 +3401,11 @@
       <c r="E124">
         <v>1</v>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -2987,6 +3427,11 @@
       <c r="E125">
         <v>1</v>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -3050,6 +3495,11 @@
       <c r="E128">
         <v>1</v>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>mm Hg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -3071,6 +3521,11 @@
       <c r="E129">
         <v>1</v>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -3092,6 +3547,11 @@
       <c r="E130">
         <v>1</v>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -3113,6 +3573,11 @@
       <c r="E131">
         <v>1</v>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -3134,6 +3599,11 @@
       <c r="E132">
         <v>1</v>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -3155,6 +3625,11 @@
       <c r="E133">
         <v>1</v>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -3176,6 +3651,11 @@
       <c r="E134">
         <v>1</v>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -3197,6 +3677,11 @@
       <c r="E135">
         <v>1</v>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -3218,6 +3703,11 @@
       <c r="E136">
         <v>1</v>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -3239,6 +3729,11 @@
       <c r="E137">
         <v>1</v>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -3260,6 +3755,11 @@
       <c r="E138">
         <v>1</v>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -3281,6 +3781,11 @@
       <c r="E139">
         <v>1</v>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -3302,6 +3807,11 @@
       <c r="E140">
         <v>1</v>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -3323,6 +3833,11 @@
       <c r="E141">
         <v>1</v>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -3344,6 +3859,11 @@
       <c r="E142">
         <v>1</v>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>+/-</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -3365,6 +3885,11 @@
       <c r="E143">
         <v>1</v>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>mIU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -3386,6 +3911,11 @@
       <c r="E144">
         <v>1</v>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>ug/dL</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -3407,6 +3937,11 @@
       <c r="E145">
         <v>1</v>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -3428,6 +3963,11 @@
       <c r="E146">
         <v>1</v>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -3449,6 +3989,11 @@
       <c r="E147">
         <v>1</v>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -3470,6 +4015,11 @@
       <c r="E148">
         <v>2</v>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>mg/24hours|mg/24hr</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -3491,6 +4041,11 @@
       <c r="E149">
         <v>1</v>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -3512,6 +4067,11 @@
       <c r="E150">
         <v>2</v>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>nG/mL|ug/dL</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -3554,6 +4114,11 @@
       <c r="E152">
         <v>1</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -3596,6 +4161,11 @@
       <c r="E154">
         <v>2</v>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ng/ml|ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -3617,6 +4187,11 @@
       <c r="E155">
         <v>1</v>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -3638,6 +4213,11 @@
       <c r="E156">
         <v>1</v>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -3659,6 +4239,11 @@
       <c r="E157">
         <v>1</v>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -3701,6 +4286,11 @@
       <c r="E159">
         <v>1</v>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -3722,6 +4312,11 @@
       <c r="E160">
         <v>1</v>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -3743,6 +4338,11 @@
       <c r="E161">
         <v>1</v>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -3764,6 +4364,11 @@
       <c r="E162">
         <v>1</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -3785,6 +4390,11 @@
       <c r="E163">
         <v>1</v>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -3806,6 +4416,11 @@
       <c r="E164">
         <v>1</v>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -3827,6 +4442,11 @@
       <c r="E165">
         <v>1</v>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -3848,6 +4468,11 @@
       <c r="E166">
         <v>1</v>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -3869,6 +4494,11 @@
       <c r="E167">
         <v>1</v>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -3953,6 +4583,11 @@
       <c r="E171">
         <v>1</v>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -3974,6 +4609,11 @@
       <c r="E172">
         <v>1</v>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -3995,6 +4635,11 @@
       <c r="E173">
         <v>1</v>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -4016,6 +4661,11 @@
       <c r="E174">
         <v>1</v>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ug/dL</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -4037,6 +4687,11 @@
       <c r="E175">
         <v>1</v>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ug/dL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -4058,6 +4713,11 @@
       <c r="E176">
         <v>1</v>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -4100,6 +4760,11 @@
       <c r="E178">
         <v>1</v>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -4121,6 +4786,11 @@
       <c r="E179">
         <v>1</v>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -4142,6 +4812,11 @@
       <c r="E180">
         <v>1</v>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -4163,6 +4838,11 @@
       <c r="E181">
         <v>1</v>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -4184,6 +4864,11 @@
       <c r="E182">
         <v>1</v>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -4205,6 +4890,11 @@
       <c r="E183">
         <v>1</v>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -4226,6 +4916,11 @@
       <c r="E184">
         <v>1</v>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -4247,6 +4942,11 @@
       <c r="E185">
         <v>1</v>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -4268,6 +4968,11 @@
       <c r="E186">
         <v>1</v>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -4289,6 +4994,11 @@
       <c r="E187">
         <v>1</v>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -4331,6 +5041,11 @@
       <c r="E189">
         <v>1</v>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -4352,6 +5067,11 @@
       <c r="E190">
         <v>1</v>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -4373,6 +5093,11 @@
       <c r="E191">
         <v>1</v>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -4394,6 +5119,11 @@
       <c r="E192">
         <v>1</v>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -4415,6 +5145,11 @@
       <c r="E193">
         <v>1</v>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -4436,6 +5171,11 @@
       <c r="E194">
         <v>1</v>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -4457,6 +5197,11 @@
       <c r="E195">
         <v>1</v>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -4478,6 +5223,11 @@
       <c r="E196">
         <v>2</v>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>#/CU MM|#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -4499,6 +5249,11 @@
       <c r="E197">
         <v>1</v>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -4520,6 +5275,11 @@
       <c r="E198">
         <v>1</v>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>K/uL</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -4541,6 +5301,11 @@
       <c r="E199">
         <v>1</v>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -4562,6 +5327,11 @@
       <c r="E200">
         <v>1</v>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -4583,6 +5353,11 @@
       <c r="E201">
         <v>1</v>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -4604,6 +5379,11 @@
       <c r="E202">
         <v>2</v>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>#/CU MM|#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -4625,6 +5405,11 @@
       <c r="E203">
         <v>1</v>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -4646,6 +5431,11 @@
       <c r="E204">
         <v>1</v>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -4667,6 +5457,11 @@
       <c r="E205">
         <v>1</v>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -4688,6 +5483,11 @@
       <c r="E206">
         <v>1</v>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -4709,6 +5509,11 @@
       <c r="E207">
         <v>1</v>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -4730,6 +5535,11 @@
       <c r="E208">
         <v>1</v>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -4751,6 +5561,11 @@
       <c r="E209">
         <v>1</v>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -4772,6 +5587,11 @@
       <c r="E210">
         <v>1</v>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -4793,6 +5613,11 @@
       <c r="E211">
         <v>1</v>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -4814,6 +5639,11 @@
       <c r="E212">
         <v>1</v>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -4835,6 +5665,11 @@
       <c r="E213">
         <v>1</v>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -4855,6 +5690,11 @@
       </c>
       <c r="E214">
         <v>1</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -4877,6 +5717,11 @@
       <c r="E215">
         <v>1</v>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -4898,6 +5743,11 @@
       <c r="E216">
         <v>1</v>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -4919,6 +5769,11 @@
       <c r="E217">
         <v>1</v>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -4940,6 +5795,11 @@
       <c r="E218">
         <v>1</v>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -4961,6 +5821,11 @@
       <c r="E219">
         <v>1</v>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -4982,6 +5847,11 @@
       <c r="E220">
         <v>1</v>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -5003,6 +5873,11 @@
       <c r="E221">
         <v>1</v>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -5024,6 +5899,11 @@
       <c r="E222">
         <v>1</v>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>mOsm/kg</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -5045,6 +5925,11 @@
       <c r="E223">
         <v>3</v>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>mOsm/kg|MOSM/KG|MOSM/L</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -5066,6 +5951,11 @@
       <c r="E224">
         <v>1</v>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>mOsm/kg</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -5087,6 +5977,11 @@
       <c r="E225">
         <v>1</v>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>mOsm/kg</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -5129,6 +6024,11 @@
       <c r="E227">
         <v>1</v>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>mm Hg</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -5150,6 +6050,11 @@
       <c r="E228">
         <v>1</v>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -5171,6 +6076,11 @@
       <c r="E229">
         <v>1</v>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -5213,6 +6123,11 @@
       <c r="E231">
         <v>1</v>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -5234,6 +6149,11 @@
       <c r="E232">
         <v>1</v>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -5255,6 +6175,11 @@
       <c r="E233">
         <v>1</v>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -5276,6 +6201,11 @@
       <c r="E234">
         <v>1</v>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -5297,6 +6227,11 @@
       <c r="E235">
         <v>1</v>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -5318,6 +6253,11 @@
       <c r="E236">
         <v>1</v>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -5339,6 +6279,11 @@
       <c r="E237">
         <v>1</v>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>mL</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -5360,6 +6305,11 @@
       <c r="E238">
         <v>1</v>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>mL</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -5381,6 +6331,11 @@
       <c r="E239">
         <v>1</v>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>+/-</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -5402,6 +6357,11 @@
       <c r="E240">
         <v>1</v>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -5423,6 +6383,11 @@
       <c r="E241">
         <v>1</v>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -5444,6 +6409,11 @@
       <c r="E242">
         <v>1</v>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -5465,6 +6435,11 @@
       <c r="E243">
         <v>1</v>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -5486,6 +6461,11 @@
       <c r="E244">
         <v>2</v>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ng/mL|nG/mL</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -5507,6 +6487,11 @@
       <c r="E245">
         <v>1</v>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -5528,6 +6513,11 @@
       <c r="E246">
         <v>1</v>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -5549,6 +6539,11 @@
       <c r="E247">
         <v>1</v>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -5570,6 +6565,11 @@
       <c r="E248">
         <v>2</v>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ng/mL|ug/L</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -5591,6 +6591,11 @@
       <c r="E249">
         <v>1</v>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -5612,6 +6617,11 @@
       <c r="E250">
         <v>1</v>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -5633,6 +6643,11 @@
       <c r="E251">
         <v>1</v>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -5654,6 +6669,11 @@
       <c r="E252">
         <v>1</v>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253">
@@ -5675,6 +6695,11 @@
       <c r="E253">
         <v>1</v>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254">
@@ -5696,6 +6721,11 @@
       <c r="E254">
         <v>1</v>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255">
@@ -5717,6 +6747,11 @@
       <c r="E255">
         <v>1</v>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256">
@@ -5738,6 +6773,11 @@
       <c r="E256">
         <v>2</v>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>mg/24hours|mg/24hr</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257">
@@ -5759,6 +6799,11 @@
       <c r="E257">
         <v>1</v>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258">
@@ -5780,6 +6825,11 @@
       <c r="E258">
         <v>1</v>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259">
@@ -5801,6 +6851,11 @@
       <c r="E259">
         <v>1</v>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260">
@@ -5822,6 +6877,11 @@
       <c r="E260">
         <v>1</v>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>nmol/L</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261">
@@ -5843,6 +6903,11 @@
       <c r="E261">
         <v>1</v>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262">
@@ -5863,6 +6928,11 @@
       </c>
       <c r="E262">
         <v>1</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -5885,6 +6955,11 @@
       <c r="E263">
         <v>1</v>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264">
@@ -5906,6 +6981,11 @@
       <c r="E264">
         <v>1</v>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265">
@@ -5927,6 +7007,11 @@
       <c r="E265">
         <v>1</v>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266">
@@ -5948,6 +7033,11 @@
       <c r="E266">
         <v>1</v>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ng/dL</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267">
@@ -5969,6 +7059,11 @@
       <c r="E267">
         <v>1</v>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268">
@@ -5990,6 +7085,11 @@
       <c r="E268">
         <v>2</v>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ng/dL|pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269">
@@ -6011,6 +7111,11 @@
       <c r="E269">
         <v>1</v>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270">
@@ -6032,6 +7137,11 @@
       <c r="E270">
         <v>1</v>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271">
@@ -6053,6 +7163,11 @@
       <c r="E271">
         <v>2</v>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>uIU/mL|uU/ML</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272">
@@ -6074,6 +7189,11 @@
       <c r="E272">
         <v>1</v>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273">
@@ -6095,6 +7215,11 @@
       <c r="E273">
         <v>2</v>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ng/dl|ng/dL</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274">
@@ -6116,6 +7241,11 @@
       <c r="E274">
         <v>2</v>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ug/dL|uG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275">
@@ -6137,6 +7267,11 @@
       <c r="E275">
         <v>1</v>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276">
@@ -6158,6 +7293,11 @@
       <c r="E276">
         <v>1</v>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277">
@@ -6179,6 +7319,11 @@
       <c r="E277">
         <v>1</v>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278">
@@ -6200,6 +7345,11 @@
       <c r="E278">
         <v>1</v>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279">
@@ -6221,6 +7371,11 @@
       <c r="E279">
         <v>1</v>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280">
@@ -6242,6 +7397,11 @@
       <c r="E280">
         <v>1</v>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281">
@@ -6263,6 +7423,11 @@
       <c r="E281">
         <v>1</v>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282">
@@ -6284,6 +7449,11 @@
       <c r="E282">
         <v>1</v>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283">
@@ -6305,6 +7475,11 @@
       <c r="E283">
         <v>1</v>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284">
@@ -6326,6 +7501,11 @@
       <c r="E284">
         <v>1</v>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285">
@@ -6347,6 +7527,11 @@
       <c r="E285">
         <v>1</v>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286">
@@ -6368,6 +7553,11 @@
       <c r="E286">
         <v>1</v>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287">
@@ -6389,6 +7579,11 @@
       <c r="E287">
         <v>1</v>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288">
@@ -6410,6 +7605,11 @@
       <c r="E288">
         <v>1</v>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289">
@@ -6431,6 +7631,11 @@
       <c r="E289">
         <v>1</v>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290">
@@ -6452,6 +7657,11 @@
       <c r="E290">
         <v>2</v>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Ratio|RATIO</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291">
@@ -6473,6 +7683,11 @@
       <c r="E291">
         <v>2</v>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>ng/dL|NG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292">
@@ -6494,6 +7709,11 @@
       <c r="E292">
         <v>1</v>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293">
@@ -6515,6 +7735,11 @@
       <c r="E293">
         <v>2</v>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>mg/dL|MG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294">
@@ -6536,6 +7761,11 @@
       <c r="E294">
         <v>1</v>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295">
@@ -6557,6 +7787,11 @@
       <c r="E295">
         <v>1</v>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296">
@@ -6578,6 +7813,11 @@
       <c r="E296">
         <v>1</v>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297">
@@ -6599,6 +7839,11 @@
       <c r="E297">
         <v>1</v>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298">
@@ -6620,6 +7865,11 @@
       <c r="E298">
         <v>1</v>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299">
@@ -6641,6 +7891,11 @@
       <c r="E299">
         <v>1</v>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300">
@@ -6683,6 +7938,11 @@
       <c r="E301">
         <v>1</v>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302">
@@ -6704,6 +7964,11 @@
       <c r="E302">
         <v>1</v>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>L/min</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303">
@@ -6725,6 +7990,11 @@
       <c r="E303">
         <v>1</v>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304">
@@ -6746,6 +8016,11 @@
       <c r="E304">
         <v>1</v>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>MPL</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305">
@@ -6767,6 +8042,11 @@
       <c r="E305">
         <v>1</v>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306">
@@ -6788,6 +8068,11 @@
       <c r="E306">
         <v>1</v>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307">
@@ -6809,6 +8094,11 @@
       <c r="E307">
         <v>1</v>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308">
@@ -6872,6 +8162,11 @@
       <c r="E310">
         <v>1</v>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
@@ -6893,6 +8188,11 @@
       <c r="E311">
         <v>1</v>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312">
@@ -6914,6 +8214,11 @@
       <c r="E312">
         <v>2</v>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ug/dL|uG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313">
@@ -6935,6 +8240,11 @@
       <c r="E313">
         <v>1</v>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314">
@@ -6956,6 +8266,11 @@
       <c r="E314">
         <v>1</v>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315">
@@ -6977,6 +8292,11 @@
       <c r="E315">
         <v>1</v>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316">
@@ -6998,6 +8318,11 @@
       <c r="E316">
         <v>1</v>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317">
@@ -7103,6 +8428,11 @@
       <c r="E321">
         <v>1</v>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>U/g/Hb</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322">
@@ -7124,6 +8454,11 @@
       <c r="E322">
         <v>1</v>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323">
@@ -7166,6 +8501,11 @@
       <c r="E324">
         <v>1</v>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>U/mL</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325">
@@ -7187,6 +8527,11 @@
       <c r="E325">
         <v>1</v>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>mmol/L</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326">
@@ -7208,6 +8553,11 @@
       <c r="E326">
         <v>1</v>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327">
@@ -7250,6 +8600,11 @@
       <c r="E328">
         <v>1</v>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329">
@@ -7271,6 +8626,11 @@
       <c r="E329">
         <v>1</v>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330">
@@ -7292,6 +8652,11 @@
       <c r="E330">
         <v>1</v>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
@@ -7355,6 +8720,11 @@
       <c r="E333">
         <v>1</v>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334">
@@ -7376,6 +8746,11 @@
       <c r="E334">
         <v>1</v>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335">
@@ -7397,6 +8772,11 @@
       <c r="E335">
         <v>1</v>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336">
@@ -7418,6 +8798,11 @@
       <c r="E336">
         <v>1</v>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337">
@@ -7439,6 +8824,11 @@
       <c r="E337">
         <v>1</v>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338">
@@ -7460,6 +8850,11 @@
       <c r="E338">
         <v>1</v>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339">
@@ -7481,6 +8876,11 @@
       <c r="E339">
         <v>1</v>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340">
@@ -7502,6 +8902,11 @@
       <c r="E340">
         <v>1</v>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341">
@@ -7544,6 +8949,11 @@
       <c r="E342">
         <v>1</v>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>mL/min</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343">
@@ -7586,6 +8996,11 @@
       <c r="E344">
         <v>1</v>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>pg/mL</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345">
@@ -7712,6 +9127,11 @@
       <c r="E350">
         <v>1</v>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351">
@@ -7754,6 +9174,11 @@
       <c r="E352">
         <v>1</v>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353">
@@ -7775,6 +9200,11 @@
       <c r="E353">
         <v>2</v>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>mEq/L|MEQ/L</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354">
@@ -7817,6 +9247,11 @@
       <c r="E355">
         <v>1</v>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356">
@@ -7838,6 +9273,11 @@
       <c r="E356">
         <v>1</v>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357">
@@ -7859,6 +9299,11 @@
       <c r="E357">
         <v>1</v>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358">
@@ -7943,6 +9388,11 @@
       <c r="E361">
         <v>1</v>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362">
@@ -7964,6 +9414,11 @@
       <c r="E362">
         <v>1</v>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363">
@@ -7985,6 +9440,11 @@
       <c r="E363">
         <v>1</v>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>mmol/L</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364">
@@ -8027,6 +9487,11 @@
       <c r="E365">
         <v>1</v>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366">
@@ -8090,6 +9555,11 @@
       <c r="E368">
         <v>1</v>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369">
@@ -8111,6 +9581,11 @@
       <c r="E369">
         <v>1</v>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370">
@@ -8132,6 +9607,11 @@
       <c r="E370">
         <v>1</v>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371">
@@ -8153,6 +9633,11 @@
       <c r="E371">
         <v>1</v>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372">
@@ -8174,6 +9659,11 @@
       <c r="E372">
         <v>1</v>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373">
@@ -8195,6 +9685,11 @@
       <c r="E373">
         <v>2</v>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ug/ml|ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374">
@@ -8216,6 +9711,11 @@
       <c r="E374">
         <v>1</v>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375">
@@ -8237,6 +9737,11 @@
       <c r="E375">
         <v>1</v>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376">
@@ -8258,6 +9763,11 @@
       <c r="E376">
         <v>1</v>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377">
@@ -8279,6 +9789,11 @@
       <c r="E377">
         <v>1</v>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378">
@@ -8342,6 +9857,11 @@
       <c r="E380">
         <v>1</v>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381">
@@ -8363,6 +9883,11 @@
       <c r="E381">
         <v>1</v>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382">
@@ -8384,6 +9909,11 @@
       <c r="E382">
         <v>1</v>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383">
@@ -8552,6 +10082,11 @@
       <c r="E390">
         <v>1</v>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391">
@@ -8573,6 +10108,11 @@
       <c r="E391">
         <v>1</v>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392">
@@ -8594,6 +10134,11 @@
       <c r="E392">
         <v>1</v>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>mm/hr</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393">
@@ -8615,6 +10160,11 @@
       <c r="E393">
         <v>2</v>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>mg/dL|MG/DL</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394">
@@ -8636,6 +10186,11 @@
       <c r="E394">
         <v>1</v>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395">
@@ -8657,6 +10212,11 @@
       <c r="E395">
         <v>1</v>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396">
@@ -8699,6 +10259,11 @@
       <c r="E397">
         <v>1</v>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398">
@@ -8720,6 +10285,11 @@
       <c r="E398">
         <v>1</v>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399">
@@ -8741,6 +10311,11 @@
       <c r="E399">
         <v>1</v>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400">
@@ -8762,6 +10337,11 @@
       <c r="E400">
         <v>1</v>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401">
@@ -8804,6 +10384,11 @@
       <c r="E402">
         <v>1</v>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403">
@@ -8825,6 +10410,11 @@
       <c r="E403">
         <v>1</v>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404">
@@ -8846,6 +10436,11 @@
       <c r="E404">
         <v>1</v>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405">
@@ -8867,6 +10462,11 @@
       <c r="E405">
         <v>1</v>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406">
@@ -8909,6 +10509,11 @@
       <c r="E407">
         <v>1</v>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408">
@@ -8972,6 +10577,11 @@
       <c r="E410">
         <v>1</v>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411">
@@ -8993,6 +10603,11 @@
       <c r="E411">
         <v>1</v>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412">
@@ -9371,6 +10986,11 @@
       <c r="E429">
         <v>1</v>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>U/mL</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430">
@@ -9623,6 +11243,11 @@
       <c r="E441">
         <v>1</v>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442">
@@ -9644,6 +11269,11 @@
       <c r="E442">
         <v>1</v>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Pos/Neg</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443">
@@ -9770,6 +11400,11 @@
       <c r="E448">
         <v>1</v>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449">
@@ -9791,6 +11426,11 @@
       <c r="E449">
         <v>1</v>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>IU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450">
@@ -9812,6 +11452,11 @@
       <c r="E450">
         <v>1</v>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451">
@@ -9833,6 +11478,11 @@
       <c r="E451">
         <v>1</v>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452">
@@ -9875,6 +11525,11 @@
       <c r="E453">
         <v>1</v>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454">
@@ -10127,6 +11782,11 @@
       <c r="E465">
         <v>2</v>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>EU/dL|mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466">
@@ -10316,6 +11976,11 @@
       <c r="E474">
         <v>1</v>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475">
@@ -10337,6 +12002,11 @@
       <c r="E475">
         <v>1</v>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476">
@@ -10358,6 +12028,11 @@
       <c r="E476">
         <v>1</v>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477">
@@ -10379,6 +12054,11 @@
       <c r="E477">
         <v>1</v>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478">
@@ -10400,6 +12080,11 @@
       <c r="E478">
         <v>1</v>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479">
@@ -10421,6 +12106,11 @@
       <c r="E479">
         <v>1</v>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480">
@@ -10505,6 +12195,11 @@
       <c r="E483">
         <v>1</v>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484">
@@ -10526,6 +12221,11 @@
       <c r="E484">
         <v>1</v>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485">
@@ -10547,6 +12247,11 @@
       <c r="E485">
         <v>1</v>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486">
@@ -10568,6 +12273,11 @@
       <c r="E486">
         <v>1</v>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487">
@@ -10589,6 +12299,11 @@
       <c r="E487">
         <v>1</v>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488">
@@ -10694,6 +12409,11 @@
       <c r="E492">
         <v>2</v>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>EU/dL|mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493">
@@ -10715,6 +12435,11 @@
       <c r="E493">
         <v>1</v>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494">
@@ -10736,6 +12461,11 @@
       <c r="E494">
         <v>1</v>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495">
@@ -10757,6 +12487,11 @@
       <c r="E495">
         <v>1</v>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>#/hpf</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496">
@@ -10820,6 +12555,11 @@
       <c r="E498">
         <v>2</v>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>sec|SECONDS</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499">
@@ -10841,6 +12581,11 @@
       <c r="E499">
         <v>1</v>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500">
@@ -10862,6 +12607,11 @@
       <c r="E500">
         <v>1</v>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501">
@@ -10883,6 +12633,11 @@
       <c r="E501">
         <v>1</v>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502">
@@ -10904,6 +12659,11 @@
       <c r="E502">
         <v>2</v>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>ng/ml|ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503">
@@ -10946,6 +12706,11 @@
       <c r="E504">
         <v>1</v>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505">
@@ -10967,6 +12732,11 @@
       <c r="E505">
         <v>1</v>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506">
@@ -10988,6 +12758,11 @@
       <c r="E506">
         <v>1</v>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507">
@@ -11009,6 +12784,11 @@
       <c r="E507">
         <v>1</v>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508">
@@ -11072,6 +12852,11 @@
       <c r="E510">
         <v>1</v>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>mg/24hr</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511">
@@ -11093,6 +12878,11 @@
       <c r="E511">
         <v>2</v>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>I.U.|IU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512">
@@ -11156,6 +12946,11 @@
       <c r="E514">
         <v>1</v>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515">
@@ -11177,6 +12972,11 @@
       <c r="E515">
         <v>1</v>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516">
@@ -11198,6 +12998,11 @@
       <c r="E516">
         <v>1</v>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517">
@@ -11219,6 +13024,11 @@
       <c r="E517">
         <v>1</v>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518">
@@ -11261,6 +13071,11 @@
       <c r="E519">
         <v>1</v>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520">
@@ -11303,6 +13118,11 @@
       <c r="E521">
         <v>1</v>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522">
@@ -11324,6 +13144,11 @@
       <c r="E522">
         <v>1</v>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523">
@@ -11345,6 +13170,11 @@
       <c r="E523">
         <v>1</v>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524">
@@ -11408,6 +13238,11 @@
       <c r="E526">
         <v>1</v>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527">
@@ -11429,6 +13264,11 @@
       <c r="E527">
         <v>1</v>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528">
@@ -11450,6 +13290,11 @@
       <c r="E528">
         <v>1</v>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529">
@@ -11471,6 +13316,11 @@
       <c r="E529">
         <v>1</v>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530">
@@ -11492,6 +13342,11 @@
       <c r="E530">
         <v>1</v>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531">
@@ -11534,6 +13389,11 @@
       <c r="E532">
         <v>1</v>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>K/uL</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533">
@@ -11702,6 +13562,11 @@
       <c r="E540">
         <v>1</v>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541">
@@ -11723,6 +13588,11 @@
       <c r="E541">
         <v>1</v>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>pg</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542">
@@ -11744,6 +13614,11 @@
       <c r="E542">
         <v>1</v>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543">
@@ -11765,6 +13640,11 @@
       <c r="E543">
         <v>1</v>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>fL</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544">
@@ -11786,6 +13666,11 @@
       <c r="E544">
         <v>1</v>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545">
@@ -11807,6 +13692,11 @@
       <c r="E545">
         <v>1</v>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>m/uL</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546">
@@ -11828,6 +13718,11 @@
       <c r="E546">
         <v>1</v>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547">
@@ -11912,6 +13807,11 @@
       <c r="E550">
         <v>1</v>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>K/uL</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551">
@@ -11954,6 +13854,11 @@
       <c r="E552">
         <v>1</v>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>GPL</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553">
@@ -11975,6 +13880,11 @@
       <c r="E553">
         <v>1</v>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>IU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554">
@@ -12185,6 +14095,11 @@
       <c r="E563">
         <v>1</v>
       </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564">
@@ -12206,6 +14121,11 @@
       <c r="E564">
         <v>1</v>
       </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565">
@@ -12227,6 +14147,11 @@
       <c r="E565">
         <v>1</v>
       </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566">
@@ -12269,6 +14194,11 @@
       <c r="E567">
         <v>1</v>
       </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568">
@@ -12290,6 +14220,11 @@
       <c r="E568">
         <v>1</v>
       </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569">
@@ -12311,6 +14246,11 @@
       <c r="E569">
         <v>1</v>
       </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570">
@@ -12437,6 +14377,11 @@
       <c r="E575">
         <v>1</v>
       </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576">
@@ -12458,6 +14403,11 @@
       <c r="E576">
         <v>1</v>
       </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577">
@@ -12542,6 +14492,11 @@
       <c r="E580">
         <v>1</v>
       </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581">
@@ -12563,6 +14518,11 @@
       <c r="E581">
         <v>1</v>
       </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582">
@@ -12584,6 +14544,11 @@
       <c r="E582">
         <v>1</v>
       </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583">
@@ -12605,6 +14570,11 @@
       <c r="E583">
         <v>1</v>
       </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584">
@@ -12626,6 +14596,11 @@
       <c r="E584">
         <v>1</v>
       </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585">
@@ -12754,6 +14729,11 @@
       <c r="E592">
         <v>1</v>
       </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593">
@@ -12770,6 +14750,11 @@
       <c r="E593">
         <v>1</v>
       </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594">
@@ -12786,6 +14771,11 @@
       <c r="E594">
         <v>1</v>
       </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595">
@@ -12802,6 +14792,11 @@
       <c r="E595">
         <v>1</v>
       </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596">
@@ -12818,6 +14813,11 @@
       <c r="E596">
         <v>1</v>
       </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597">
@@ -12882,6 +14882,11 @@
       <c r="E600">
         <v>1</v>
       </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601">
@@ -12946,6 +14951,11 @@
       <c r="E604">
         <v>1</v>
       </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605">
@@ -12962,6 +14972,11 @@
       <c r="E605">
         <v>1</v>
       </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>IU/mL</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606">
@@ -12978,6 +14993,11 @@
       <c r="E606">
         <v>1</v>
       </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607">
@@ -13026,6 +15046,11 @@
       <c r="E609">
         <v>1</v>
       </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>umol/L</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610">
@@ -13058,6 +15083,11 @@
       <c r="E611">
         <v>1</v>
       </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612">
@@ -13074,6 +15104,11 @@
       <c r="E612">
         <v>1</v>
       </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>ng/mL</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613">
@@ -13106,6 +15141,11 @@
       <c r="E614">
         <v>1</v>
       </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>g/dL</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615">
@@ -13154,6 +15194,11 @@
       <c r="E617">
         <v>1</v>
       </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>U/L</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618">
@@ -13186,6 +15231,11 @@
       <c r="E619">
         <v>1</v>
       </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620">
@@ -13202,6 +15252,11 @@
       <c r="E620">
         <v>1</v>
       </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>mEq/L</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621">
@@ -13218,6 +15273,11 @@
       <c r="E621">
         <v>1</v>
       </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622">
@@ -13250,6 +15310,11 @@
       <c r="E623">
         <v>1</v>
       </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624">
@@ -13266,6 +15331,11 @@
       <c r="E624">
         <v>1</v>
       </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625">
@@ -13282,6 +15352,11 @@
       <c r="E625">
         <v>1</v>
       </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626">
@@ -13298,6 +15373,11 @@
       <c r="E626">
         <v>1</v>
       </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627">
@@ -13314,6 +15394,11 @@
       <c r="E627">
         <v>1</v>
       </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628">
@@ -13330,6 +15415,11 @@
       <c r="E628">
         <v>1</v>
       </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629">
@@ -13346,6 +15436,11 @@
       <c r="E629">
         <v>1</v>
       </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630">
@@ -13362,6 +15457,11 @@
       <c r="E630">
         <v>1</v>
       </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631">
@@ -13377,6 +15477,11 @@
       </c>
       <c r="E631">
         <v>1</v>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="632">
@@ -13394,6 +15499,11 @@
       <c r="E632">
         <v>1</v>
       </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633">
@@ -13426,6 +15536,11 @@
       <c r="E634">
         <v>1</v>
       </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635">
@@ -13490,6 +15605,11 @@
       <c r="E638">
         <v>1</v>
       </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639">
@@ -13506,6 +15626,11 @@
       <c r="E639">
         <v>1</v>
       </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640">
@@ -13522,6 +15647,11 @@
       <c r="E640">
         <v>1</v>
       </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641">
@@ -13538,6 +15668,11 @@
       <c r="E641">
         <v>1</v>
       </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642">
@@ -13554,6 +15689,11 @@
       <c r="E642">
         <v>1</v>
       </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643">
@@ -13570,6 +15710,11 @@
       <c r="E643">
         <v>1</v>
       </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644">
@@ -13602,6 +15747,11 @@
       <c r="E645">
         <v>1</v>
       </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646">
@@ -13618,6 +15768,11 @@
       <c r="E646">
         <v>1</v>
       </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647">
@@ -13634,6 +15789,11 @@
       <c r="E647">
         <v>1</v>
       </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648">
@@ -13650,6 +15810,11 @@
       <c r="E648">
         <v>1</v>
       </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649">
@@ -13794,6 +15959,11 @@
       <c r="E657">
         <v>1</v>
       </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658">
@@ -13842,6 +16012,11 @@
       <c r="E660">
         <v>1</v>
       </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>sec</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661">
@@ -13858,6 +16033,11 @@
       <c r="E661">
         <v>1</v>
       </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>pg</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662">
@@ -14130,6 +16310,11 @@
       <c r="E678">
         <v>1</v>
       </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679">
@@ -14146,6 +16331,11 @@
       <c r="E679">
         <v>1</v>
       </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680">
@@ -14162,6 +16352,11 @@
       <c r="E680">
         <v>1</v>
       </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681">
@@ -14178,6 +16373,11 @@
       <c r="E681">
         <v>1</v>
       </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682">
@@ -14258,6 +16458,11 @@
       <c r="E686">
         <v>1</v>
       </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687">
@@ -14274,6 +16479,11 @@
       <c r="E687">
         <v>1</v>
       </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688">
@@ -14338,6 +16548,11 @@
       <c r="E691">
         <v>1</v>
       </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>#/uL</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692">
@@ -14418,6 +16633,11 @@
       <c r="E696">
         <v>1</v>
       </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697">
@@ -14434,6 +16654,11 @@
       <c r="E697">
         <v>1</v>
       </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698">
@@ -14450,6 +16675,11 @@
       <c r="E698">
         <v>1</v>
       </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699">
@@ -14466,6 +16696,11 @@
       <c r="E699">
         <v>1</v>
       </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700">
@@ -14482,6 +16717,11 @@
       <c r="E700">
         <v>1</v>
       </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701">
@@ -14498,6 +16738,11 @@
       <c r="E701">
         <v>1</v>
       </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702">
@@ -14514,6 +16759,11 @@
       <c r="E702">
         <v>1</v>
       </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703">
@@ -14530,6 +16780,11 @@
       <c r="E703">
         <v>1</v>
       </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704">
@@ -14546,6 +16801,11 @@
       <c r="E704">
         <v>1</v>
       </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705">
@@ -14562,6 +16822,11 @@
       <c r="E705">
         <v>1</v>
       </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706">
@@ -14577,6 +16842,11 @@
       </c>
       <c r="E706">
         <v>1</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
     <row r="707">
@@ -14594,6 +16864,11 @@
       <c r="E707">
         <v>1</v>
       </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708">
@@ -14610,6 +16885,11 @@
       <c r="E708">
         <v>1</v>
       </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>#/lpf</t>
+        </is>
+      </c>
     </row>
     <row r="709">
       <c r="A709">
@@ -14658,6 +16938,11 @@
       <c r="E711">
         <v>1</v>
       </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712">
@@ -14690,6 +16975,11 @@
       <c r="E713">
         <v>1</v>
       </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>IU/L</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714">
@@ -14738,6 +17028,11 @@
       <c r="E716">
         <v>1</v>
       </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>umol/L</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717">
@@ -14770,6 +17065,11 @@
       <c r="E718">
         <v>1</v>
       </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>mg/dL</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719">
@@ -14786,6 +17086,11 @@
       <c r="E719">
         <v>1</v>
       </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>ug/mL</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720">
@@ -14818,6 +17123,11 @@
       <c r="E721">
         <v>1</v>
       </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722">
@@ -14834,6 +17144,11 @@
       <c r="E722">
         <v>1</v>
       </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723">
@@ -14850,6 +17165,11 @@
       <c r="E723">
         <v>1</v>
       </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
     </row>
     <row r="724">
       <c r="A724">
@@ -14913,6 +17233,11 @@
       </c>
       <c r="E727">
         <v>1</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>mg/g</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/labevents/Lab-Event-Item-Counts.xlsx
+++ b/labevents/Lab-Event-Item-Counts.xlsx
@@ -485,7 +485,12 @@
         </is>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -506,7 +511,12 @@
         </is>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -527,7 +537,12 @@
         </is>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -548,7 +563,12 @@
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -569,7 +589,12 @@
         </is>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -590,7 +615,12 @@
         </is>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -611,7 +641,12 @@
         </is>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -658,11 +693,11 @@
         </is>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -684,11 +719,11 @@
         </is>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ng/ml</t>
+          <t>ng/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -814,11 +849,11 @@
         </is>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -844,7 +879,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>mm Hg|MM HG</t>
+          <t>mm Hg|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -870,7 +905,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>mm Hg|MM HG</t>
+          <t>mm Hg|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -896,7 +931,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>units|UNITS</t>
+          <t>units|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1109,12 @@
         </is>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1121,7 +1161,12 @@
         </is>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1194,7 +1239,12 @@
         </is>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1241,11 +1291,11 @@
         </is>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+/-</t>
+          <t>+/-|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1317,12 @@
         </is>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1314,7 +1369,12 @@
         </is>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1335,7 +1395,12 @@
         </is>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1408,7 +1473,12 @@
         </is>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1429,7 +1499,12 @@
         </is>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1632,7 +1707,12 @@
         </is>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1653,11 +1733,11 @@
         </is>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>mg/g</t>
+          <t>mg/g|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1763,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>mIU/L|mIU/mL</t>
+          <t>mIU/mL|mIU/L</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1945,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>mIU/L|mIU/mL</t>
+          <t>mIU/mL|mIU/L</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1967,12 @@
         </is>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1938,7 +2023,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>mg/dL|MG/DL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -1960,7 +2045,12 @@
         </is>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1981,7 +2071,12 @@
         </is>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2002,7 +2097,12 @@
         </is>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2023,7 +2123,12 @@
         </is>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2070,7 +2175,12 @@
         </is>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2091,7 +2201,12 @@
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2112,7 +2227,12 @@
         </is>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2133,7 +2253,12 @@
         </is>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2154,7 +2279,12 @@
         </is>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2175,11 +2305,11 @@
         </is>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>IU/L</t>
+          <t>IU/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -2305,11 +2435,11 @@
         </is>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2617,12 @@
         </is>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2508,7 +2643,12 @@
         </is>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2529,7 +2669,12 @@
         </is>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2550,7 +2695,12 @@
         </is>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -2571,7 +2721,12 @@
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2592,7 +2747,12 @@
         </is>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -2899,7 +3059,12 @@
         </is>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -2920,7 +3085,12 @@
         </is>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -2941,7 +3111,12 @@
         </is>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -2962,11 +3137,11 @@
         </is>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ng/mL|nG/ML</t>
+          <t>ng/mL</t>
         </is>
       </c>
     </row>
@@ -3014,11 +3189,11 @@
         </is>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3215,12 @@
         </is>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -3061,11 +3241,11 @@
         </is>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>IU/L</t>
+          <t>IU/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3113,11 +3293,11 @@
         </is>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3139,11 +3319,11 @@
         </is>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3269,11 +3449,11 @@
         </is>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3479,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>mg/dL|MG/DL|mg/L</t>
+          <t>mg/dL|mg/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3321,11 +3501,11 @@
         </is>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>mmol/L</t>
+          <t>mmol/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3347,11 +3527,11 @@
         </is>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>mm Hg</t>
+          <t>&lt;missing&gt;|mm Hg</t>
         </is>
       </c>
     </row>
@@ -3373,11 +3553,11 @@
         </is>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>&lt;missing&gt;|%</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3579,11 @@
         </is>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3631,12 @@
         </is>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -3472,7 +3657,12 @@
         </is>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -3493,11 +3683,11 @@
         </is>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>mm Hg</t>
+          <t>&lt;missing&gt;|mm Hg</t>
         </is>
       </c>
     </row>
@@ -3571,11 +3761,11 @@
         </is>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>&lt;missing&gt;|%</t>
         </is>
       </c>
     </row>
@@ -3597,11 +3787,11 @@
         </is>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3623,11 +3813,11 @@
         </is>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3649,11 +3839,11 @@
         </is>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ug/mL</t>
+          <t>ug/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3675,11 +3865,11 @@
         </is>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3727,11 +3917,11 @@
         </is>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3753,11 +3943,11 @@
         </is>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3779,11 +3969,11 @@
         </is>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3805,11 +3995,11 @@
         </is>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3831,11 +4021,11 @@
         </is>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3909,11 +4099,11 @@
         </is>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ug/dL</t>
+          <t>ug/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3935,11 +4125,11 @@
         </is>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>IU/L</t>
+          <t>IU/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3961,11 +4151,11 @@
         </is>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -3987,11 +4177,11 @@
         </is>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4207,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>mg/24hours|mg/24hr</t>
+          <t>mg/24hr|mg/24hours</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4259,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>nG/mL|ug/dL</t>
+          <t>ug/dL|ng/mL</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4281,12 @@
         </is>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -4138,7 +4333,12 @@
         </is>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -4159,11 +4359,11 @@
         </is>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ng/ml|ng/mL</t>
+          <t>ng/mL</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4463,12 @@
         </is>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -4310,11 +4515,11 @@
         </is>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -4388,11 +4593,11 @@
         </is>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4723,12 @@
         </is>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4539,7 +4749,12 @@
         </is>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -4560,7 +4775,12 @@
         </is>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -4737,7 +4957,12 @@
         </is>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -4940,11 +5165,11 @@
         </is>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5243,12 @@
         </is>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -5225,7 +5455,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>#/CU MM|#/uL</t>
+          <t>#/uL|#/CU MM</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5611,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>#/CU MM|#/uL</t>
+          <t>#/uL|#/CU MM</t>
         </is>
       </c>
     </row>
@@ -5663,11 +5893,11 @@
         </is>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -5923,11 +6153,11 @@
         </is>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>mOsm/kg|MOSM/KG|MOSM/L</t>
+          <t>mOsm/kg|MOSM/L</t>
         </is>
       </c>
     </row>
@@ -5975,11 +6205,11 @@
         </is>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>mOsm/kg</t>
+          <t>mOsm/kg|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6231,12 @@
         </is>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -6022,11 +6257,11 @@
         </is>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>mm Hg</t>
+          <t>&lt;missing&gt;|mm Hg</t>
         </is>
       </c>
     </row>
@@ -6074,11 +6309,11 @@
         </is>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>units|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6335,12 @@
         </is>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -6121,11 +6361,11 @@
         </is>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6355,11 +6595,11 @@
         </is>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>&lt;missing&gt;|mEq/L</t>
         </is>
       </c>
     </row>
@@ -6407,11 +6647,11 @@
         </is>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6433,11 +6673,11 @@
         </is>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6459,11 +6699,11 @@
         </is>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>ng/mL|nG/mL</t>
+          <t>ng/mL</t>
         </is>
       </c>
     </row>
@@ -6485,11 +6725,11 @@
         </is>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6773,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Mesothelial cells</t>
+          <t>Mesothelial Cells</t>
         </is>
       </c>
       <c r="E247">
@@ -6775,7 +7015,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>mg/24hours|mg/24hr</t>
+          <t>mg/24hr|mg/24hours</t>
         </is>
       </c>
     </row>
@@ -6901,11 +7141,11 @@
         </is>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -6979,11 +7219,11 @@
         </is>
       </c>
       <c r="E264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7005,11 +7245,11 @@
         </is>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7327,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>ng/dL|pg/mL</t>
+          <t>pg/mL|ng/dL</t>
         </is>
       </c>
     </row>
@@ -7161,11 +7401,11 @@
         </is>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>uIU/mL|uU/ML</t>
+          <t>uU/ML|uIU/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7457,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>ng/dl|ng/dL</t>
+          <t>ng/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7239,11 +7479,11 @@
         </is>
       </c>
       <c r="E274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>ug/dL|uG/DL</t>
+          <t>ug/dL</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7787,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Mesothelial cells</t>
+          <t>Mesothelial Cells</t>
         </is>
       </c>
       <c r="E286">
@@ -7655,11 +7895,11 @@
         </is>
       </c>
       <c r="E290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Ratio|RATIO</t>
+          <t>Ratio</t>
         </is>
       </c>
     </row>
@@ -7681,11 +7921,11 @@
         </is>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>ng/dL|NG/DL</t>
+          <t>ng/dL</t>
         </is>
       </c>
     </row>
@@ -7707,11 +7947,11 @@
         </is>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7733,11 +7973,11 @@
         </is>
       </c>
       <c r="E293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>mg/dL|MG/DL</t>
+          <t>mg/dL</t>
         </is>
       </c>
     </row>
@@ -7785,11 +8025,11 @@
         </is>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7837,11 +8077,11 @@
         </is>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>units|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -7915,7 +8155,12 @@
         </is>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -7988,11 +8233,11 @@
         </is>
       </c>
       <c r="E303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>sec</t>
+          <t>sec|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8363,12 @@
         </is>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -8139,7 +8389,12 @@
         </is>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="310">
@@ -8212,11 +8467,11 @@
         </is>
       </c>
       <c r="E312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>ug/dL|uG/DL</t>
+          <t>ug/dL</t>
         </is>
       </c>
     </row>
@@ -8290,11 +8545,11 @@
         </is>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8597,12 @@
         </is>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -8363,7 +8623,12 @@
         </is>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -8384,7 +8649,12 @@
         </is>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -8405,7 +8675,12 @@
         </is>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -8478,7 +8753,12 @@
         </is>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -8525,11 +8805,11 @@
         </is>
       </c>
       <c r="E325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>mmol/L</t>
+          <t>mmol/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8857,12 @@
         </is>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -8676,7 +8961,12 @@
         </is>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -8697,7 +8987,12 @@
         </is>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="333">
@@ -8926,7 +9221,12 @@
         </is>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="342">
@@ -8973,7 +9273,12 @@
         </is>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="344">
@@ -8994,11 +9299,11 @@
         </is>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>pg/mL</t>
+          <t>pg/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -9020,7 +9325,12 @@
         </is>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="346">
@@ -9041,7 +9351,12 @@
         </is>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="347">
@@ -9062,7 +9377,12 @@
         </is>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="348">
@@ -9083,7 +9403,12 @@
         </is>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="349">
@@ -9104,7 +9429,12 @@
         </is>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="350">
@@ -9151,7 +9481,12 @@
         </is>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="352">
@@ -9202,7 +9537,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>mEq/L|MEQ/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -9224,7 +9559,12 @@
         </is>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="355">
@@ -9323,7 +9663,12 @@
         </is>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="359">
@@ -9344,7 +9689,12 @@
         </is>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="360">
@@ -9365,7 +9715,12 @@
         </is>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="361">
@@ -9464,7 +9819,12 @@
         </is>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="365">
@@ -9511,7 +9871,12 @@
         </is>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -9532,7 +9897,12 @@
         </is>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -9605,11 +9975,11 @@
         </is>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>ug/mL</t>
+          <t>ug/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -9683,11 +10053,11 @@
         </is>
       </c>
       <c r="E373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>ug/ml|ug/mL</t>
+          <t>ug/mL</t>
         </is>
       </c>
     </row>
@@ -9813,7 +10183,12 @@
         </is>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="379">
@@ -9834,7 +10209,12 @@
         </is>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="380">
@@ -9933,7 +10313,12 @@
         </is>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="384">
@@ -9954,7 +10339,12 @@
         </is>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="385">
@@ -9975,7 +10365,12 @@
         </is>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="386">
@@ -9996,7 +10391,12 @@
         </is>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="387">
@@ -10017,7 +10417,12 @@
         </is>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -10038,7 +10443,12 @@
         </is>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="389">
@@ -10059,7 +10469,12 @@
         </is>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="390">
@@ -10158,11 +10573,11 @@
         </is>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>mg/dL|MG/DL</t>
+          <t>mg/dL</t>
         </is>
       </c>
     </row>
@@ -10184,11 +10599,11 @@
         </is>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10651,12 @@
         </is>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="397">
@@ -10361,7 +10781,12 @@
         </is>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="402">
@@ -10460,11 +10885,11 @@
         </is>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>ng/mL</t>
+          <t>ng/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10911,12 @@
         </is>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="407">
@@ -10533,7 +10963,12 @@
         </is>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="409">
@@ -10554,7 +10989,12 @@
         </is>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="410">
@@ -10627,7 +11067,12 @@
         </is>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="413">
@@ -10648,7 +11093,12 @@
         </is>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="414">
@@ -10669,7 +11119,12 @@
         </is>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -10690,7 +11145,12 @@
         </is>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="416">
@@ -10711,7 +11171,12 @@
         </is>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="417">
@@ -10732,7 +11197,12 @@
         </is>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="418">
@@ -10753,7 +11223,12 @@
         </is>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="419">
@@ -10774,7 +11249,12 @@
         </is>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="420">
@@ -10795,7 +11275,12 @@
         </is>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="421">
@@ -10816,7 +11301,12 @@
         </is>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="422">
@@ -10837,7 +11327,12 @@
         </is>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="423">
@@ -10858,7 +11353,12 @@
         </is>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="424">
@@ -10879,7 +11379,12 @@
         </is>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="425">
@@ -10900,7 +11405,12 @@
         </is>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="426">
@@ -10921,7 +11431,12 @@
         </is>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="427">
@@ -10942,7 +11457,12 @@
         </is>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="428">
@@ -10963,7 +11483,12 @@
         </is>
       </c>
       <c r="E428">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="429">
@@ -11010,7 +11535,12 @@
         </is>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="431">
@@ -11031,7 +11561,12 @@
         </is>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="432">
@@ -11052,7 +11587,12 @@
         </is>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="433">
@@ -11073,7 +11613,12 @@
         </is>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="434">
@@ -11094,7 +11639,12 @@
         </is>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="435">
@@ -11115,7 +11665,12 @@
         </is>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="436">
@@ -11136,7 +11691,12 @@
         </is>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="437">
@@ -11157,7 +11717,12 @@
         </is>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="438">
@@ -11178,7 +11743,12 @@
         </is>
       </c>
       <c r="E438">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="439">
@@ -11199,7 +11769,12 @@
         </is>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="440">
@@ -11220,7 +11795,12 @@
         </is>
       </c>
       <c r="E440">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="441">
@@ -11267,11 +11847,11 @@
         </is>
       </c>
       <c r="E442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Pos/Neg</t>
+          <t>Pos/Neg|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -11293,7 +11873,12 @@
         </is>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="444">
@@ -11314,7 +11899,12 @@
         </is>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="445">
@@ -11335,7 +11925,12 @@
         </is>
       </c>
       <c r="E445">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="446">
@@ -11356,7 +11951,12 @@
         </is>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="447">
@@ -11377,7 +11977,12 @@
         </is>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="448">
@@ -11424,11 +12029,11 @@
         </is>
       </c>
       <c r="E449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>IU/mL</t>
+          <t>IU/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -11502,7 +12107,12 @@
         </is>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="453">
@@ -11549,7 +12159,12 @@
         </is>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="455">
@@ -11570,7 +12185,12 @@
         </is>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="456">
@@ -11591,7 +12211,12 @@
         </is>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="457">
@@ -11612,7 +12237,12 @@
         </is>
       </c>
       <c r="E457">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="458">
@@ -11633,7 +12263,12 @@
         </is>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="459">
@@ -11654,7 +12289,12 @@
         </is>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="460">
@@ -11675,7 +12315,12 @@
         </is>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="461">
@@ -11696,7 +12341,12 @@
         </is>
       </c>
       <c r="E461">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -11717,7 +12367,12 @@
         </is>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="463">
@@ -11738,7 +12393,12 @@
         </is>
       </c>
       <c r="E463">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="464">
@@ -11759,7 +12419,12 @@
         </is>
       </c>
       <c r="E464">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="465">
@@ -11780,11 +12445,11 @@
         </is>
       </c>
       <c r="E465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>EU/dL|mg/dL</t>
+          <t>EU/dL|mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -11806,7 +12471,12 @@
         </is>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -11827,7 +12497,12 @@
         </is>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="468">
@@ -11848,7 +12523,12 @@
         </is>
       </c>
       <c r="E468">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -11869,7 +12549,12 @@
         </is>
       </c>
       <c r="E469">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -11890,7 +12575,12 @@
         </is>
       </c>
       <c r="E470">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="471">
@@ -11911,7 +12601,12 @@
         </is>
       </c>
       <c r="E471">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="472">
@@ -11932,7 +12627,12 @@
         </is>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -11953,7 +12653,12 @@
         </is>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="474">
@@ -11974,11 +12679,11 @@
         </is>
       </c>
       <c r="E474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>#/hpf</t>
+          <t>#/hpf|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12000,11 +12705,11 @@
         </is>
       </c>
       <c r="E475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12052,11 +12757,11 @@
         </is>
       </c>
       <c r="E477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12104,11 +12809,11 @@
         </is>
       </c>
       <c r="E479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12130,7 +12835,12 @@
         </is>
       </c>
       <c r="E480">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="481">
@@ -12151,7 +12861,12 @@
         </is>
       </c>
       <c r="E481">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="482">
@@ -12172,7 +12887,12 @@
         </is>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="483">
@@ -12193,11 +12913,11 @@
         </is>
       </c>
       <c r="E483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>units|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12219,11 +12939,11 @@
         </is>
       </c>
       <c r="E484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>mg/dL</t>
+          <t>mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12271,11 +12991,11 @@
         </is>
       </c>
       <c r="E486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>#/hpf</t>
+          <t>#/hpf|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12297,11 +13017,11 @@
         </is>
       </c>
       <c r="E487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> |&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12323,7 +13043,12 @@
         </is>
       </c>
       <c r="E488">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="489">
@@ -12344,7 +13069,12 @@
         </is>
       </c>
       <c r="E489">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="490">
@@ -12365,7 +13095,12 @@
         </is>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="491">
@@ -12386,7 +13121,12 @@
         </is>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -12407,11 +13147,11 @@
         </is>
       </c>
       <c r="E492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>EU/dL|mg/dL</t>
+          <t>EU/dL|mg/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12485,11 +13225,11 @@
         </is>
       </c>
       <c r="E495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>#/hpf</t>
+          <t>#/hpf|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12511,7 +13251,12 @@
         </is>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="497">
@@ -12532,7 +13277,12 @@
         </is>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="498">
@@ -12557,7 +13307,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>sec|SECONDS</t>
+          <t>sec|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12631,11 +13381,11 @@
         </is>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>mEq/L</t>
+          <t>mEq/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12657,11 +13407,11 @@
         </is>
       </c>
       <c r="E502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>ng/ml|ng/mL</t>
+          <t>ng/mL</t>
         </is>
       </c>
     </row>
@@ -12683,7 +13433,12 @@
         </is>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="504">
@@ -12756,11 +13511,11 @@
         </is>
       </c>
       <c r="E506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>IU/L</t>
+          <t>IU/L|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12782,11 +13537,11 @@
         </is>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>ng/mL</t>
+          <t>ng/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12808,7 +13563,12 @@
         </is>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="509">
@@ -12829,7 +13589,12 @@
         </is>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="510">
@@ -12880,7 +13645,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>I.U.|IU/mL</t>
+          <t>IU/mL|I.U.</t>
         </is>
       </c>
     </row>
@@ -12902,7 +13667,12 @@
         </is>
       </c>
       <c r="E512">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="513">
@@ -12923,7 +13693,12 @@
         </is>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="514">
@@ -12944,11 +13719,11 @@
         </is>
       </c>
       <c r="E514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -12996,11 +13771,11 @@
         </is>
       </c>
       <c r="E516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13022,11 +13797,11 @@
         </is>
       </c>
       <c r="E517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13048,7 +13823,12 @@
         </is>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -13069,11 +13849,11 @@
         </is>
       </c>
       <c r="E519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13095,7 +13875,12 @@
         </is>
       </c>
       <c r="E520">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="521">
@@ -13142,11 +13927,11 @@
         </is>
       </c>
       <c r="E522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13168,11 +13953,11 @@
         </is>
       </c>
       <c r="E523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13194,7 +13979,12 @@
         </is>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="525">
@@ -13215,7 +14005,12 @@
         </is>
       </c>
       <c r="E525">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="526">
@@ -13236,11 +14031,11 @@
         </is>
       </c>
       <c r="E526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13262,11 +14057,11 @@
         </is>
       </c>
       <c r="E527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13288,11 +14083,11 @@
         </is>
       </c>
       <c r="E528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13366,7 +14161,12 @@
         </is>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="532">
@@ -13387,11 +14187,11 @@
         </is>
       </c>
       <c r="E532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>K/uL</t>
+          <t>K/uL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13413,7 +14213,12 @@
         </is>
       </c>
       <c r="E533">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="534">
@@ -13434,7 +14239,12 @@
         </is>
       </c>
       <c r="E534">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="535">
@@ -13455,7 +14265,12 @@
         </is>
       </c>
       <c r="E535">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="536">
@@ -13476,7 +14291,12 @@
         </is>
       </c>
       <c r="E536">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="537">
@@ -13497,7 +14317,12 @@
         </is>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="538">
@@ -13518,7 +14343,12 @@
         </is>
       </c>
       <c r="E538">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="539">
@@ -13539,7 +14369,12 @@
         </is>
       </c>
       <c r="E539">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="540">
@@ -13586,11 +14421,11 @@
         </is>
       </c>
       <c r="E541">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>pg</t>
+          <t>pg|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13612,11 +14447,11 @@
         </is>
       </c>
       <c r="E542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13638,11 +14473,11 @@
         </is>
       </c>
       <c r="E543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>fL</t>
+          <t>fL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13664,11 +14499,11 @@
         </is>
       </c>
       <c r="E544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>%|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13690,11 +14525,11 @@
         </is>
       </c>
       <c r="E545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>m/uL</t>
+          <t>m/uL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13742,7 +14577,12 @@
         </is>
       </c>
       <c r="E547">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="548">
@@ -13763,7 +14603,12 @@
         </is>
       </c>
       <c r="E548">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="549">
@@ -13784,7 +14629,12 @@
         </is>
       </c>
       <c r="E549">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="550">
@@ -13805,11 +14655,11 @@
         </is>
       </c>
       <c r="E550">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>K/uL</t>
+          <t>K/uL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13831,7 +14681,12 @@
         </is>
       </c>
       <c r="E551">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="552">
@@ -13878,11 +14733,11 @@
         </is>
       </c>
       <c r="E553">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>IU/mL</t>
+          <t>IU/mL|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -13904,7 +14759,12 @@
         </is>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="555">
@@ -13925,7 +14785,12 @@
         </is>
       </c>
       <c r="E555">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="556">
@@ -13946,7 +14811,12 @@
         </is>
       </c>
       <c r="E556">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="557">
@@ -13967,7 +14837,12 @@
         </is>
       </c>
       <c r="E557">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="558">
@@ -13988,7 +14863,12 @@
         </is>
       </c>
       <c r="E558">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="559">
@@ -14009,7 +14889,12 @@
         </is>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="560">
@@ -14030,7 +14915,12 @@
         </is>
       </c>
       <c r="E560">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="561">
@@ -14051,7 +14941,12 @@
         </is>
       </c>
       <c r="E561">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="562">
@@ -14072,7 +14967,12 @@
         </is>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="563">
@@ -14171,7 +15071,12 @@
         </is>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="567">
@@ -14270,7 +15175,12 @@
         </is>
       </c>
       <c r="E570">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="571">
@@ -14291,7 +15201,12 @@
         </is>
       </c>
       <c r="E571">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="572">
@@ -14312,7 +15227,12 @@
         </is>
       </c>
       <c r="E572">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="573">
@@ -14333,7 +15253,12 @@
         </is>
       </c>
       <c r="E573">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="574">
@@ -14354,7 +15279,12 @@
         </is>
       </c>
       <c r="E574">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="575">
@@ -14427,7 +15357,12 @@
         </is>
       </c>
       <c r="E577">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="578">
@@ -14448,7 +15383,12 @@
         </is>
       </c>
       <c r="E578">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="579">
@@ -14469,7 +15409,12 @@
         </is>
       </c>
       <c r="E579">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="580">
@@ -14490,11 +15435,11 @@
         </is>
       </c>
       <c r="E580">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>Ratio</t>
+          <t>Ratio|&lt;missing&gt;</t>
         </is>
       </c>
     </row>
@@ -14615,7 +15560,12 @@
         </is>
       </c>
       <c r="E585">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="586">
@@ -14631,7 +15581,12 @@
         </is>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="587">
@@ -14647,7 +15602,12 @@
         </is>
       </c>
       <c r="E587">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="588">
@@ -14663,7 +15623,12 @@
         </is>
       </c>
       <c r="E588">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="589">
@@ -14679,7 +15644,12 @@
         </is>
       </c>
       <c r="E589">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="590">
@@ -14695,7 +15665,12 @@
         </is>
       </c>
       <c r="E590">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="591">
@@ -14711,7 +15686,12 @@
         </is>
       </c>
       <c r="E591">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="592">
@@ -14832,7 +15812,12 @@
         </is>
       </c>
       <c r="E597">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="598">
@@ -14848,7 +15833,12 @@
         </is>
       </c>
       <c r="E598">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="599">
@@ -14864,7 +15854,12 @@
         </is>
       </c>
       <c r="E599">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="600">
@@ -14901,7 +15896,12 @@
         </is>
       </c>
       <c r="E601">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="602">
@@ -14917,7 +15917,12 @@
         </is>
       </c>
       <c r="E602">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="603">
@@ -14933,7 +15938,12 @@
         </is>
       </c>
       <c r="E603">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="604">
@@ -15012,7 +16022,12 @@
         </is>
       </c>
       <c r="E607">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="608">
@@ -15028,7 +16043,12 @@
         </is>
       </c>
       <c r="E608">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="609">
@@ -15065,7 +16085,12 @@
         </is>
       </c>
       <c r="E610">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="611">
@@ -15123,7 +16148,12 @@
         </is>
       </c>
       <c r="E613">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="614">
@@ -15160,7 +16190,12 @@
         </is>
       </c>
       <c r="E615">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="616">
@@ -15176,7 +16211,12 @@
         </is>
       </c>
       <c r="E616">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="617">
@@ -15213,7 +16253,12 @@
         </is>
       </c>
       <c r="E618">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="619">
@@ -15292,7 +16337,12 @@
         </is>
       </c>
       <c r="E622">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="623">
@@ -15518,7 +16568,12 @@
         </is>
       </c>
       <c r="E633">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="634">
@@ -15555,7 +16610,12 @@
         </is>
       </c>
       <c r="E635">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="636">
@@ -15571,7 +16631,12 @@
         </is>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="637">
@@ -15587,7 +16652,12 @@
         </is>
       </c>
       <c r="E637">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="638">
@@ -15729,7 +16799,12 @@
         </is>
       </c>
       <c r="E644">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="645">
@@ -15829,7 +16904,12 @@
         </is>
       </c>
       <c r="E649">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="650">
@@ -15845,7 +16925,12 @@
         </is>
       </c>
       <c r="E650">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="651">
@@ -15861,7 +16946,12 @@
         </is>
       </c>
       <c r="E651">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="652">
@@ -15877,7 +16967,12 @@
         </is>
       </c>
       <c r="E652">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="653">
@@ -15893,7 +16988,12 @@
         </is>
       </c>
       <c r="E653">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="654">
@@ -15909,7 +17009,12 @@
         </is>
       </c>
       <c r="E654">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="655">
@@ -15925,7 +17030,12 @@
         </is>
       </c>
       <c r="E655">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="656">
@@ -15941,7 +17051,12 @@
         </is>
       </c>
       <c r="E656">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="657">
@@ -15978,7 +17093,12 @@
         </is>
       </c>
       <c r="E658">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="659">
@@ -15994,7 +17114,12 @@
         </is>
       </c>
       <c r="E659">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="660">
@@ -16052,7 +17177,12 @@
         </is>
       </c>
       <c r="E662">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="663">
@@ -16068,7 +17198,12 @@
         </is>
       </c>
       <c r="E663">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="664">
@@ -16084,7 +17219,12 @@
         </is>
       </c>
       <c r="E664">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="665">
@@ -16100,7 +17240,12 @@
         </is>
       </c>
       <c r="E665">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="666">
@@ -16116,7 +17261,12 @@
         </is>
       </c>
       <c r="E666">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="667">
@@ -16132,7 +17282,12 @@
         </is>
       </c>
       <c r="E667">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="668">
@@ -16148,7 +17303,12 @@
         </is>
       </c>
       <c r="E668">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="669">
@@ -16164,7 +17324,12 @@
         </is>
       </c>
       <c r="E669">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="670">
@@ -16180,7 +17345,12 @@
         </is>
       </c>
       <c r="E670">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="671">
@@ -16196,7 +17366,12 @@
         </is>
       </c>
       <c r="E671">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="672">
@@ -16212,7 +17387,12 @@
         </is>
       </c>
       <c r="E672">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="673">
@@ -16228,7 +17408,12 @@
         </is>
       </c>
       <c r="E673">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="674">
@@ -16244,7 +17429,12 @@
         </is>
       </c>
       <c r="E674">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="675">
@@ -16260,7 +17450,12 @@
         </is>
       </c>
       <c r="E675">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="676">
@@ -16276,7 +17471,12 @@
         </is>
       </c>
       <c r="E676">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="677">
@@ -16292,7 +17492,12 @@
         </is>
       </c>
       <c r="E677">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="678">
@@ -16392,7 +17597,12 @@
         </is>
       </c>
       <c r="E682">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="683">
@@ -16408,7 +17618,12 @@
         </is>
       </c>
       <c r="E683">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="684">
@@ -16424,7 +17639,12 @@
         </is>
       </c>
       <c r="E684">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="685">
@@ -16440,7 +17660,12 @@
         </is>
       </c>
       <c r="E685">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="686">
@@ -16498,7 +17723,12 @@
         </is>
       </c>
       <c r="E688">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="689">
@@ -16514,7 +17744,12 @@
         </is>
       </c>
       <c r="E689">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="690">
@@ -16530,7 +17765,12 @@
         </is>
       </c>
       <c r="E690">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="691">
@@ -16546,11 +17786,11 @@
         </is>
       </c>
       <c r="E691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>#/uL</t>
+          <t>&lt;missing&gt;|#/uL</t>
         </is>
       </c>
     </row>
@@ -16567,7 +17807,12 @@
         </is>
       </c>
       <c r="E692">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="693">
@@ -16583,7 +17828,12 @@
         </is>
       </c>
       <c r="E693">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="694">
@@ -16599,7 +17849,12 @@
         </is>
       </c>
       <c r="E694">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="695">
@@ -16615,7 +17870,12 @@
         </is>
       </c>
       <c r="E695">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="696">
@@ -16904,7 +18164,12 @@
         </is>
       </c>
       <c r="E709">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="710">
@@ -16920,7 +18185,12 @@
         </is>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="711">
@@ -16957,7 +18227,12 @@
         </is>
       </c>
       <c r="E712">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="713">
@@ -16994,7 +18269,12 @@
         </is>
       </c>
       <c r="E714">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="715">
@@ -17010,7 +18290,12 @@
         </is>
       </c>
       <c r="E715">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="716">
@@ -17047,7 +18332,12 @@
         </is>
       </c>
       <c r="E717">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="718">
@@ -17105,7 +18395,12 @@
         </is>
       </c>
       <c r="E720">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="721">
@@ -17184,7 +18479,12 @@
         </is>
       </c>
       <c r="E724">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="725">
@@ -17200,7 +18500,12 @@
         </is>
       </c>
       <c r="E725">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="726">
@@ -17212,11 +18517,16 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>TdT</t>
         </is>
       </c>
       <c r="E726">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>&lt;missing&gt;</t>
+        </is>
       </c>
     </row>
     <row r="727">
